--- a/Time_Sheet (Autosaved).xlsx
+++ b/Time_Sheet (Autosaved).xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidm\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\IHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>روز و تاریخ</t>
   </si>
@@ -43,6 +42,24 @@
   </si>
   <si>
     <t>بررسی API ها موجود و داکیومنت کردن بخشی از آن</t>
+  </si>
+  <si>
+    <t>شنبه 16/09/1398</t>
+  </si>
+  <si>
+    <t>کار بر روی لایبری Instasharp</t>
+  </si>
+  <si>
+    <t>یکشنبه 17/09/1398</t>
+  </si>
+  <si>
+    <t>دوشنبه 18/09/1398</t>
+  </si>
+  <si>
+    <t>کار بر روی لایبری mgp25</t>
+  </si>
+  <si>
+    <t>سه شنبه 19/09/1398</t>
   </si>
 </sst>
 </file>
@@ -361,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,6 +420,62 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
